--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2927710.175690293</v>
+        <v>2923377.690869601</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10087461.63830379</v>
+        <v>10087461.6383038</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>245.6115901221046</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>43.95772706123027</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>274.4876658745442</v>
       </c>
       <c r="X4" t="n">
-        <v>126.7632886126195</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>195.7765238144135</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>43.80431246487774</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>128.7835007017905</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>89.71987003457456</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>288.4186882821381</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>195.1355013328483</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>155.9407888106546</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>27.45797858609829</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>78.6882778203391</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>100.2041656279966</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.64713141731118</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>135.3135037226523</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>240.3363440419449</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>120.7871326503973</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>142.7059665293332</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>40.62253010341743</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>43.55707494718542</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>153.4164748164159</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>143.5476780877542</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>2.268486125805721</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>75.75905456204198</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>103.8784673763408</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>74.20064764874429</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695582</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128558</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364137</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>97.02629574294529</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766866</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1040.216121848822</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C2" t="n">
-        <v>1040.216121848822</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1040.216121848822</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1040.216121848822</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>629.2302170592147</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2652.747346511929</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W2" t="n">
-        <v>1816.955293888756</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X2" t="n">
-        <v>1816.955293888756</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y2" t="n">
-        <v>1426.815961912944</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4427,13 +4427,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>181.9867076916973</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1387.069036214947</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="C5" t="n">
-        <v>1018.106519274536</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2652.90231075067</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2652.90231075067</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2652.90231075067</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2321.839423407099</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1969.070768136985</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1595.605009875905</v>
       </c>
       <c r="Y5" t="n">
-        <v>1584.823100673951</v>
+        <v>1205.465677900094</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.4444960005474</v>
+        <v>184.0273259635872</v>
       </c>
       <c r="C7" t="n">
-        <v>473.4444960005474</v>
+        <v>184.0273259635872</v>
       </c>
       <c r="D7" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E7" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F7" t="n">
-        <v>326.554548502637</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>473.4444960005478</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>184.0273259635872</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005474</v>
+        <v>184.0273259635872</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005474</v>
+        <v>184.0273259635872</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1507.939751500713</v>
+        <v>1139.146815977589</v>
       </c>
       <c r="C8" t="n">
-        <v>1507.939751500713</v>
+        <v>770.1842990371772</v>
       </c>
       <c r="D8" t="n">
-        <v>1149.674052893962</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>1149.674052893962</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1894.539591564834</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="X8" t="n">
-        <v>1894.539591564834</v>
+        <v>1915.885988017522</v>
       </c>
       <c r="Y8" t="n">
-        <v>1894.539591564834</v>
+        <v>1525.746656041711</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>268.535689181137</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="T10" t="n">
-        <v>257.1154545468206</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="U10" t="n">
-        <v>257.1154545468206</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="V10" t="n">
-        <v>257.1154545468206</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>670.9767331549068</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>450.1841540113767</v>
       </c>
     </row>
     <row r="11">
@@ -5038,10 +5038,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5123,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1031.260321675049</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>862.3241387471426</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>712.2074993348068</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>564.2944057524137</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1433.701365648819</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1212.908786505289</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5360,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>155.0763917523266</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5466,22 +5466,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>2191.112710026075</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,7 +5527,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>251.5626541092265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>746.8882603249853</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951537</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.2946447138415</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C19" t="n">
-        <v>916.2946447138415</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1984.597634722449</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138415</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5837,19 +5837,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2515.675093211831</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C22" t="n">
-        <v>391.8463960427007</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D22" t="n">
-        <v>241.729756630365</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,19 +6071,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>551.354624631591</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C25" t="n">
-        <v>382.4184417036842</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D25" t="n">
-        <v>382.4184417036842</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>443.7574521812145</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>276.5613528960944</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>134.8495217382925</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6308,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>917.5010142286973</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C28" t="n">
-        <v>917.5010142286973</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D28" t="n">
-        <v>767.3843748163615</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>619.4712812339684</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>472.581333736058</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1099.149479058937</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6454,43 +6454,43 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921476</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898186995</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429802</v>
@@ -6618,55 +6618,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1508.305175991783</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6782,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921476</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186995</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.9288273958739</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>633.992644467967</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>633.992644467967</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510509</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304622</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369644</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261136</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,19 +6934,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803938</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.3929232910542</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>782.4567403631473</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>632.3401009508116</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>484.4270073684185</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>337.5370598705081</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>170.340960585388</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>170.340960585388</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.041388121294</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7265,10 +7265,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400717</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>168.7668121881176</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="41">
@@ -7399,46 +7399,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111687</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107575</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332378</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014794</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355948</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068017</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778468</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967198</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354686</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.774219330013</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.239661356898</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
         <v>93.81666304797187</v>
@@ -7490,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756254</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.388077746844</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.7136839626</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589149</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589149</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190828</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685894</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7523,7 +7523,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
         <v>1781.463605996603</v>
@@ -7532,7 +7532,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
         <v>1111.614450297915</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>702.4944101284096</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>533.5582272005028</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>383.441587788167</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>235.5284942057739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.052681478295</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038325</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797711</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570811</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279794</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853352</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358025</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358025</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235155</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2166.101889898846</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1877.026663243044</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.342175037157</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1332.925005000197</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1104.935454102179</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>884.1428749586494</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2757.723669558405</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>2646.594662309226</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>2646.594662309226</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>2646.594662309226</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309226</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532175</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388645</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451757</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8461,7 +8461,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747115</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.126250982330011e-12</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>2.876276994356886e-11</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>66.73277020259215</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>20.61870490125435</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>13.30196929556004</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>45.84813034729925</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>46.45968844823057</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>37.12601365260414</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>40.64330621514811</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>105.0583980710269</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>12.10766347585297</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>142.9753202488368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>144.1654765207635</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>5.506781756523537</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>44.7370056418716</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>66.09406519747959</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856585</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012214</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>120.379154584343</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194126</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>750880.2124683422</v>
+        <v>750880.212468342</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.2124683422</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>750880.2124683422</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="F2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="F2" t="n">
-        <v>665895.9447442546</v>
-      </c>
       <c r="G2" t="n">
-        <v>665895.9447442554</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="H2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="I2" t="n">
         <v>665895.9447442552</v>
       </c>
-      <c r="I2" t="n">
-        <v>665895.9447442553</v>
-      </c>
       <c r="J2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442554</v>
+        <v>665895.944744255</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442554</v>
+        <v>665895.944744255</v>
       </c>
       <c r="O2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577088</v>
+        <v>944372.7777577084</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.337669339225007e-09</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.93469599657692e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
+        <v>5067.592601670436</v>
+      </c>
+      <c r="F4" t="n">
         <v>5067.592601670437</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>5067.592601670438</v>
       </c>
-      <c r="G4" t="n">
-        <v>5067.592601670418</v>
-      </c>
       <c r="H4" t="n">
-        <v>5067.592601670417</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
+        <v>5067.592601670438</v>
+      </c>
+      <c r="J4" t="n">
         <v>5067.592601670437</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5067.592601670415</v>
       </c>
       <c r="K4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670423</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
+        <v>5067.592601670438</v>
+      </c>
+      <c r="N4" t="n">
         <v>5067.592601670437</v>
       </c>
-      <c r="N4" t="n">
-        <v>5067.592601670414</v>
-      </c>
       <c r="O4" t="n">
-        <v>5067.592601670838</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26508,7 +26508,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196532.0030676519</v>
+        <v>-196532.0030676521</v>
       </c>
       <c r="C6" t="n">
-        <v>393435.8761468926</v>
+        <v>393435.8761468925</v>
       </c>
       <c r="D6" t="n">
-        <v>393435.8761468926</v>
+        <v>393435.8761468923</v>
       </c>
       <c r="E6" t="n">
-        <v>-384666.9554390315</v>
+        <v>-385014.3346933879</v>
       </c>
       <c r="F6" t="n">
-        <v>559705.8223186771</v>
+        <v>559358.4430643204</v>
       </c>
       <c r="G6" t="n">
-        <v>559705.8223186777</v>
+        <v>559358.4430643207</v>
       </c>
       <c r="H6" t="n">
-        <v>559705.8223186777</v>
+        <v>559358.4430643204</v>
       </c>
       <c r="I6" t="n">
-        <v>559705.8223186778</v>
+        <v>559358.4430643207</v>
       </c>
       <c r="J6" t="n">
-        <v>383282.6031260848</v>
+        <v>382935.2238717273</v>
       </c>
       <c r="K6" t="n">
-        <v>559705.8223186779</v>
+        <v>559358.4430643206</v>
       </c>
       <c r="L6" t="n">
-        <v>559705.8223186777</v>
+        <v>559358.4430643205</v>
       </c>
       <c r="M6" t="n">
-        <v>435497.3116106189</v>
+        <v>435149.9323562618</v>
       </c>
       <c r="N6" t="n">
-        <v>559705.8223186779</v>
+        <v>559358.4430643206</v>
       </c>
       <c r="O6" t="n">
-        <v>559705.8223186812</v>
+        <v>559358.4430643206</v>
       </c>
       <c r="P6" t="n">
-        <v>559705.8223186736</v>
+        <v>559358.4430643205</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26776,7 +26776,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341668</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245871</v>
+        <v>990.2318361245868</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,10 +26998,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-4.891023970951422e-12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.911715561524034e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>168.1725798986904</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>10.52067551358143</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>12.03533246204677</v>
       </c>
       <c r="X4" t="n">
-        <v>98.94636677641765</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>186.9573178490671</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>130.6114003440938</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>19.83197231642188</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>77.58993222447636</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>66.26435333854482</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>211.7405444088631</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>130.5822095259364</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>198.2516768029388</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31281,46 +31281,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31457,28 +31457,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>156.3072281639545</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32080,28 +32080,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>431.3680753731354</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>146.0225991093084</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32557,34 +32557,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>177.7456072667729</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M24" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L30" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>211.7351844430268</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>601.0567753070487</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,22 +33976,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.49939899634841</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135317</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067223</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663263</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817546</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162525</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175635</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159384</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.586862645999</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236474</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669198</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292895</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651518</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078727</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659437</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521088</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420743</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422566</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473046</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.546647686209</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>639.8517673857162</v>
       </c>
       <c r="O42" t="n">
-        <v>370.9642309107873</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214675</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485275</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742415</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937729</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275946</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189893</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121561</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869244</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796254</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355166</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588138</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392029</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106772</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920043</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417302</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515919</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670473</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532748</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099318</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467216</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>535.8585467435946</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>22.33282074962425</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>297.3936679588052</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>8.181160134949373</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>37.7638331807514</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M24" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L30" t="n">
-        <v>73.1808046631526</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>73.1808046631526</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>469.7150632237154</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316375</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.70871103964</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036774</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462653</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107903195</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193475</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243122</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683779</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924703</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754076</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678976</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674304</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641906</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>508.510055302383</v>
       </c>
       <c r="O42" t="n">
-        <v>228.3679864663428</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071373</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.617838762506</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295265</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096338</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191299</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010435</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899058</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060439</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066237</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998975</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>393.2623022991502</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2923377.690869601</v>
+        <v>2925138.221172385</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>43.95772706123027</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>268.2021836279155</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.264003285459055</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>274.4876658745442</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>141.2974503117685</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>43.80431246487774</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>128.7835007017905</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>288.4186882821381</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>13.15972490571568</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>27.45797858609829</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="11">
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>100.2041656279966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.64713141731118</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>240.3363440419449</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>114.2173032139413</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>220.6346102953135</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>40.62253010341743</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>43.55707494718542</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C37" t="n">
-        <v>130.1208074460232</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>74.20064764874429</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,16 +3717,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>145.0635245304607</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>168.5023926007952</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2476.569858826099</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2652.747346511929</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2476.569858826099</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2476.569858826099</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2476.569858826099</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2476.569858826099</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2476.569858826099</v>
+        <v>1391.572277535616</v>
       </c>
       <c r="X2" t="n">
-        <v>2476.569858826099</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="Y2" t="n">
-        <v>2476.569858826099</v>
+        <v>1018.106519274536</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>350.0227938960811</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>202.109700313688</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>55.21975281577764</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>450.8687156462887</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>818.8658378359718</v>
+        <v>1330.553052060998</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>961.5905351205863</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>603.3248365138359</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097704</v>
+        <v>217.5365839155916</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177357</v>
+        <v>210.5910831663882</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036447</v>
+        <v>196.6676791049791</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036447</v>
+        <v>196.6676791049791</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2652.90231075067</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2652.90231075067</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2652.90231075067</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2321.839423407099</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>1969.070768136985</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X5" t="n">
-        <v>1595.605009875905</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y5" t="n">
-        <v>1205.465677900094</v>
+        <v>1717.15289212512</v>
       </c>
     </row>
     <row r="6">
@@ -4637,28 +4637,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.0273259635872</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C7" t="n">
-        <v>184.0273259635872</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036447</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005478</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>184.0273259635872</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>184.0273259635872</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.0273259635872</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1139.146815977589</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>770.1842990371772</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278602</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017522</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1525.746656041711</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.535689181137</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323009</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>670.9767331549068</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>450.1841540113767</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5038,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5123,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5260,25 +5260,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5357,22 +5357,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048574</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925216</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>296.7882229101285</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>296.7882229101285</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>296.7882229101285</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>155.0763917523266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5600,19 +5600,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>810.0653816078141</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>641.1291986799072</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1984.597634722449</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1729.913146516562</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1440.495976479601</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1212.506425581584</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>991.7138464380538</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5779,22 +5779,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5837,16 +5837,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>542.9134462654469</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>432.9862109052757</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>432.9862109052757</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1754.597837787969</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1499.913349582082</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.496179545122</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>982.5066286471044</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5989,10 +5989,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6071,16 +6071,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
         <v>2129.438138565707</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1057.613315601761</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>888.6771326738537</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>738.560493261518</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>590.6473996791249</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>443.7574521812145</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>276.5613528960944</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>134.8495217382925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1977.461080510508</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1688.043910473548</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>1460.05435957553</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>1239.261780432</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6308,7 +6308,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
         <v>776.1751066403293</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179085</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>593.6115863900017</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908939</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,10 +6694,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6709,13 +6709,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6782,22 +6782,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969308</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C37" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D37" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7162,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7256,19 +7256,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>802.9288273958734</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C40" t="n">
-        <v>633.9926444679666</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>483.8760050556308</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>335.9629114732377</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>335.9629114732377</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>168.7668121881176</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369643</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.5772922261132</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7496,13 +7496,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
         <v>1896.176478190825</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1807.256643540008</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1552.572155334121</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1263.15498529716</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1035.165434399143</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>814.3728552556131</v>
       </c>
     </row>
     <row r="44">
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7733,16 +7733,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
         <v>2319.799627685893</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8306,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451757</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>20.61870490125435</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>45.84813034729925</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>51.30683507832751</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>40.64330621514811</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>105.0583980710269</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C37" t="n">
-        <v>37.12601365260466</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>66.09406519747959</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>80.64613085857644</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>117.682081788449</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.212468342</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>750880.2124683422</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.212468342</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.212468342</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683422</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.212468342</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.212468342</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380331</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="H2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="F2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442548</v>
       </c>
       <c r="I2" t="n">
         <v>665895.9447442552</v>
@@ -26340,19 +26340,19 @@
         <v>665895.9447442548</v>
       </c>
       <c r="K2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="L2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="L2" t="n">
-        <v>665895.9447442549</v>
-      </c>
       <c r="M2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="N2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442549</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577084</v>
+        <v>944372.7777577088</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670436</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
         <v>5067.592601670437</v>
@@ -26450,7 +26450,7 @@
         <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
         <v>5067.592601670437</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196532.0030676521</v>
+        <v>-196532.0030676522</v>
       </c>
       <c r="C6" t="n">
-        <v>393435.8761468925</v>
+        <v>393435.8761468924</v>
       </c>
       <c r="D6" t="n">
-        <v>393435.8761468923</v>
+        <v>393435.8761468922</v>
       </c>
       <c r="E6" t="n">
-        <v>-385014.3346933879</v>
+        <v>-384701.6933644672</v>
       </c>
       <c r="F6" t="n">
-        <v>559358.4430643204</v>
+        <v>559671.0843932416</v>
       </c>
       <c r="G6" t="n">
-        <v>559358.4430643207</v>
+        <v>559671.0843932414</v>
       </c>
       <c r="H6" t="n">
-        <v>559358.4430643204</v>
+        <v>559671.0843932419</v>
       </c>
       <c r="I6" t="n">
-        <v>559358.4430643207</v>
+        <v>559671.084393242</v>
       </c>
       <c r="J6" t="n">
-        <v>382935.2238717273</v>
+        <v>383247.8652006485</v>
       </c>
       <c r="K6" t="n">
-        <v>559358.4430643206</v>
+        <v>559671.0843932418</v>
       </c>
       <c r="L6" t="n">
-        <v>559358.4430643205</v>
+        <v>559671.0843932419</v>
       </c>
       <c r="M6" t="n">
-        <v>435149.9323562618</v>
+        <v>435462.5736851833</v>
       </c>
       <c r="N6" t="n">
-        <v>559358.4430643206</v>
+        <v>559671.0843932419</v>
       </c>
       <c r="O6" t="n">
-        <v>559358.4430643206</v>
+        <v>559671.0843932418</v>
       </c>
       <c r="P6" t="n">
-        <v>559358.4430643205</v>
+        <v>559671.0843932418</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245868</v>
+        <v>990.2318361245871</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>10.52067551358143</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>81.03878508949748</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>166.0457989735918</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>12.03533246204677</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>10.63386593309278</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>130.6114003440938</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>19.83197231642188</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>44.65327491702013</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>66.26435333854482</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>393.7163208359958</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>198.2516768029388</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31281,46 +31281,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31457,28 +31457,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,13 +31843,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31858,10 +31858,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32077,13 +32077,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32320,7 +32320,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>248.7449369209195</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32557,19 +32557,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>441.0292693655512</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>639.8517673857162</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33028,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33502,13 +33502,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L33" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33517,10 +33517,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33739,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,13 +33985,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34216,16 +34216,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34453,19 +34453,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245899</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35506,10 +35506,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35904,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35968,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>110.1905571410453</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>508.510055302383</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36439,19 +36439,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36676,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36913,22 +36913,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37150,13 +37150,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L33" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37165,10 +37165,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37387,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,13 +37633,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38028,7 +38028,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
